--- a/m4a_physikpraktikum_stroemungen.xlsx
+++ b/m4a_physikpraktikum_stroemungen.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Messungen 4.1</t>
   </si>
@@ -107,17 +107,35 @@
     <t>R^0.5</t>
   </si>
   <si>
-    <t>nachschauen</t>
-  </si>
-  <si>
     <t>Wasser</t>
+  </si>
+  <si>
+    <t>Masse[g]</t>
+  </si>
+  <si>
+    <t>±0.2s</t>
+  </si>
+  <si>
+    <t>relativer Fehler</t>
+  </si>
+  <si>
+    <t>Absoluter Fehler?</t>
+  </si>
+  <si>
+    <t>xerrorbars</t>
+  </si>
+  <si>
+    <t>yerrorbars</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit^2 [m/s]^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,11 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Textkörper)"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -154,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,26 +211,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,29 +524,30 @@
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -535,8 +557,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -550,9 +572,21 @@
       <c r="E3">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4">
         <v>0.95</v>
       </c>
@@ -566,9 +600,21 @@
       <c r="E4">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="H4" s="4">
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.87934903791483088</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -582,55 +628,110 @@
       <c r="E5">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.9062821112548465</v>
+      </c>
+      <c r="J5">
+        <v>0.02</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <f>AVERAGE(B3:B5)</f>
         <v>0.94999999999999984</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <f t="shared" ref="C6:E6" si="1">AVERAGE(C3:C5)</f>
         <v>0.93773612381886562</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>2.1333333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.7003134961030284</v>
+      </c>
+      <c r="J6">
+        <v>0.02</v>
+      </c>
+      <c r="K6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="I7" s="4">
+        <f>C33*C33</f>
+        <v>4.353555012764299</v>
+      </c>
+      <c r="J7">
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D8">
+        <f>D7/D6</f>
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <f>E7/E6</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <f>E8+D8</f>
+        <v>0.10375</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
@@ -640,8 +741,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13">
         <v>1.89</v>
       </c>
@@ -656,8 +757,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14">
         <v>1.89</v>
       </c>
@@ -672,8 +773,8 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15">
         <v>1.89</v>
       </c>
@@ -688,23 +789,23 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
         <f>AVERAGE(B13:B15)</f>
         <v>1.89</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="2">
         <f t="shared" ref="C16" si="3">AVERAGE(C13:C15)</f>
         <v>1.3806817559650908</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <f t="shared" ref="D16" si="4">AVERAGE(D13:D15)</f>
         <v>2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <f t="shared" ref="E16" si="5">AVERAGE(E13:E15)</f>
         <v>1.45</v>
       </c>
@@ -719,23 +820,23 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>26</v>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -746,7 +847,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21">
         <v>2.91</v>
       </c>
@@ -762,7 +863,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22">
         <v>2.91</v>
       </c>
@@ -778,7 +879,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23">
         <v>2.91</v>
       </c>
@@ -794,22 +895,22 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="2">
         <f>AVERAGE(B21:B23)</f>
         <v>2.91</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <f t="shared" ref="C24" si="7">AVERAGE(C21:C23)</f>
         <v>1.6432630635729109</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <f t="shared" ref="D24" si="8">AVERAGE(D21:D23)</f>
         <v>2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
         <f t="shared" ref="E24" si="9">AVERAGE(E21:E23)</f>
         <v>1.22</v>
       </c>
@@ -824,23 +925,23 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>26</v>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
@@ -851,7 +952,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="8"/>
       <c r="B30">
         <v>4.8</v>
       </c>
@@ -867,7 +968,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="8"/>
       <c r="B31">
         <v>4.8</v>
       </c>
@@ -883,7 +984,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="8"/>
       <c r="B32">
         <v>4.8</v>
       </c>
@@ -899,22 +1000,22 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="2">
         <f>AVERAGE(B30:B32)</f>
         <v>4.8</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <f t="shared" ref="C33" si="11">AVERAGE(C30:C32)</f>
         <v>2.0865174364870041</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <f t="shared" ref="D33" si="12">AVERAGE(D30:D32)</f>
         <v>2</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="2">
         <f t="shared" ref="E33" si="13">AVERAGE(E30:E32)</f>
         <v>0.96333333333333337</v>
       </c>
@@ -929,45 +1030,45 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>26</v>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B39" t="s">
@@ -990,7 +1091,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="8"/>
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1117,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="8"/>
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1138,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="8"/>
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1159,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="8"/>
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -1079,60 +1180,60 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <f>AVERAGE(C41:C43)</f>
         <v>70.243333333333339</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <f t="shared" ref="D44:G44" si="15">AVERAGE(D41:D43)</f>
         <v>29.560000000000002</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <f t="shared" si="15"/>
         <v>18.866666666666667</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <f t="shared" si="15"/>
         <v>12.453333333333333</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="1">
         <f t="shared" si="15"/>
         <v>6.7266666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <f>1/C44</f>
         <v>1.4236226450908744E-2</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <f t="shared" ref="D45:G45" si="16">1/D44</f>
         <v>3.3829499323410013E-2</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <f t="shared" si="16"/>
         <v>5.3003533568904596E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="1">
         <f t="shared" si="16"/>
         <v>8.0299785867237683E-2</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="1">
         <f t="shared" si="16"/>
         <v>0.14866204162537167</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>27</v>
+      <c r="A48" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -1154,7 +1255,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
+      <c r="A49" s="9"/>
       <c r="B49" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1281,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+      <c r="A50" s="9"/>
       <c r="B50" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1302,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
+      <c r="A51" s="9"/>
       <c r="B51" t="s">
         <v>21</v>
       </c>
@@ -1222,7 +1323,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
+      <c r="A52" s="9"/>
       <c r="B52" t="s">
         <v>22</v>
       </c>
@@ -1243,53 +1344,53 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <f>AVERAGE(C50:C52)</f>
         <v>4.126666666666666</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <f t="shared" ref="D53" si="18">AVERAGE(D50:D52)</f>
         <v>2.9433333333333334</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="1">
         <f t="shared" ref="E53" si="19">AVERAGE(E50:E52)</f>
         <v>2.3699999999999997</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="1">
         <f t="shared" ref="F53" si="20">AVERAGE(F50:F52)</f>
         <v>2.1466666666666669</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="1">
         <f t="shared" ref="G53" si="21">AVERAGE(G50:G52)</f>
         <v>1.71</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <f>1/C53</f>
         <v>0.2423263327948304</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <f t="shared" ref="D54" si="22">1/D53</f>
         <v>0.33975084937712347</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="1">
         <f t="shared" ref="E54" si="23">1/E53</f>
         <v>0.42194092827004226</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="1">
         <f t="shared" ref="F54" si="24">1/F53</f>
         <v>0.46583850931677012</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <f t="shared" ref="G54" si="25">1/G53</f>
         <v>0.58479532163742687</v>
       </c>

--- a/m4a_physikpraktikum_stroemungen.xlsx
+++ b/m4a_physikpraktikum_stroemungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Messungen 4.1</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Geschwindigkeit^2 [m/s]^2</t>
+  </si>
+  <si>
+    <t>Fehlerschranke Zeit</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +607,7 @@
         <v>0.94999999999999984</v>
       </c>
       <c r="I4" s="4">
-        <v>0.87934903791483088</v>
+        <v>0.87934903791483099</v>
       </c>
       <c r="J4" s="4">
         <v>0.02</v>
@@ -1089,6 +1092,12 @@
       <c r="G39">
         <v>4</v>
       </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
@@ -1115,6 +1124,12 @@
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
+      <c r="I40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -1215,11 +1230,11 @@
         <v>1.4236226450908744E-2</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" ref="D45:G45" si="16">1/D44</f>
+        <f>1/D44</f>
         <v>3.3829499323410013E-2</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D45:G45" si="16">1/E44</f>
         <v>5.3003533568904596E-2</v>
       </c>
       <c r="F45" s="1">
@@ -1227,7 +1242,7 @@
         <v>8.0299785867237683E-2</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="16"/>
+        <f>1/G44</f>
         <v>0.14866204162537167</v>
       </c>
     </row>

--- a/m4a_physikpraktikum_stroemungen.xlsx
+++ b/m4a_physikpraktikum_stroemungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="11020" yWindow="460" windowWidth="17300" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Messungen 4.1</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Fehlerschranke Zeit</t>
+  </si>
+  <si>
+    <t>cW Wert</t>
   </si>
 </sst>
 </file>
@@ -516,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I7"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,6 +746,9 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -759,6 +765,10 @@
       <c r="E13">
         <v>1.5</v>
       </c>
+      <c r="G13">
+        <f>2*B13/1000*9.81/(1.184*0.08*0.08*PI()*C16*C16)</f>
+        <v>0.81713175038005526</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -790,6 +800,10 @@
       </c>
       <c r="E15">
         <v>1.46</v>
+      </c>
+      <c r="G15">
+        <f>SQRT((8*(998.2-1.204)*0.001*9.81)/(3*0.04*1.204))</f>
+        <v>23.271390760050778</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1234,7 +1248,7 @@
         <v>3.3829499323410013E-2</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" ref="D45:G45" si="16">1/E44</f>
+        <f t="shared" ref="E45:F45" si="16">1/E44</f>
         <v>5.3003533568904596E-2</v>
       </c>
       <c r="F45" s="1">
